--- a/KẾ TOÁN - THÁI HẰNG/NHẬP HÀNG/Phiếu xuất kho bán hàng THL (có giá).xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NHẬP HÀNG/Phiếu xuất kho bán hàng THL (có giá).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\HangWorkspace\KẾ TOÁN - THÁI HẰNG\NHẬP HÀNG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7905" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7905" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="NH đợt1" sheetId="1" r:id="rId1"/>
@@ -19,13 +24,14 @@
     <sheet name="NH đợt10" sheetId="10" r:id="rId10"/>
     <sheet name="NH đợt 11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="93">
   <si>
     <t>PHIẾU XUẤT KHO BÁN HÀNG</t>
   </si>
@@ -359,14 +365,20 @@
   <si>
     <t>Địa chỉ: Số 10 ngách 165/53 Đường Cầu Giấy, tổ 28 - P.Dịch Vọng - Q.Cầu Giấy - HN</t>
   </si>
+  <si>
+    <t>Ngày 04 tháng 05 năm 2020</t>
+  </si>
+  <si>
+    <t>Nano+ Milk Infant số 1 400g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -552,9 +564,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -574,10 +586,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,10 +601,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,10 +616,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,13 +637,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,10 +656,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,10 +671,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,10 +686,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -695,8 +707,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -712,28 +724,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,6 +764,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -797,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,7 +850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,41 +1089,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1186,15 +1204,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1531,55 +1549,55 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1590,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,41 +1636,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1733,15 +1751,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1865,41 +1883,41 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1924,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,41 +1970,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2067,15 +2085,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2292,41 +2310,41 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61" t="s">
+      <c r="D32" s="64"/>
+      <c r="E32" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2350,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2378,41 +2396,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
@@ -2470,15 +2488,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2908,41 +2926,41 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2960,6 +2978,456 @@
   </mergeCells>
   <pageMargins left="0.42" right="0.42" top="0.39" bottom="0.41" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1650000</v>
+      </c>
+      <c r="G19" s="10">
+        <f>E19*F19</f>
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11">
+        <v>20</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1650000</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" ref="G20:G24" si="0">E20*F20</f>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="11">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1650000</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>4</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1650000</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1650000</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="0"/>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>6</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="11">
+        <v>20</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1650000</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="0"/>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="5">
+        <f>SUM(E19:E24)</f>
+        <v>74</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26">
+        <f>SUM(G19:G24)</f>
+        <v>122100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="28">
+        <f>G25</f>
+        <v>122100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="28">
+        <f>G26+G27</f>
+        <v>122100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2994,41 +3462,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3109,15 +3577,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3310,41 +3778,41 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3397,41 +3865,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3512,15 +3980,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3833,41 +4301,41 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3920,41 +4388,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4035,15 +4503,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4164,41 +4632,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4254,41 +4722,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4369,15 +4837,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4666,41 +5134,41 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62" t="s">
+      <c r="D34" s="65"/>
+      <c r="E34" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4753,41 +5221,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4868,15 +5336,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4997,41 +5465,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5084,41 +5552,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5199,15 +5667,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5544,41 +6012,41 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5631,41 +6099,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5746,15 +6214,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5995,41 +6463,41 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62" t="s">
+      <c r="D32" s="65"/>
+      <c r="E32" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61" t="s">
+      <c r="D33" s="64"/>
+      <c r="E33" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6082,41 +6550,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -6197,15 +6665,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -6422,41 +6890,41 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61" t="s">
+      <c r="D32" s="64"/>
+      <c r="E32" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
